--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4_19_20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Count" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -355,6 +356,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Project/Programme</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>NPV for all projects and NPV for programmes if available</t>
@@ -538,6 +544,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Project/Programme</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>NPV for all projects and NPV for programmes if available</t>
@@ -706,6 +717,281 @@
       </c>
       <c r="H8" t="n">
         <v>738.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PVC total per category</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q1 20/21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Q4 19/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2956</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2089</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1481.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Very High and Financially Positive</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Economically Positive</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7978</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7245.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Category count</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Q1 20/21</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Q4 19/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Very High and Financially Positive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Economically Positive</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,12 +383,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>VfM Category lower range</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VfM Category upper range</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Present Value Cost (PVC)</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Present Value Benefit (PVB)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Benefits Narrative</t>
         </is>
       </c>
     </row>
@@ -412,11 +427,26 @@
           <t>Very High</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>2089</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>30458</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">All you need is love, love is all you need </t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -439,10 +469,20 @@
           <t>High</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>928</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>2398</v>
       </c>
     </row>
@@ -466,10 +506,10 @@
           <t>High</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>833</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>3494</v>
       </c>
     </row>
@@ -493,10 +533,20 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2956</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>4312</v>
       </c>
     </row>
@@ -517,10 +567,10 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1172</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>738.36</v>
       </c>
     </row>
@@ -535,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,12 +621,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>VfM Category lower range</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VfM Category upper range</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Present Value Cost (PVC)</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Present Value Benefit (PVB)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Benefits Narrative</t>
         </is>
       </c>
     </row>
@@ -600,11 +665,16 @@
           <t>Very High</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1481.6</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>31773.8</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Hello is it me you’re looking for</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -627,11 +697,16 @@
           <t>High</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>928</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>2398</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -661,10 +736,10 @@
           <t>High</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>833</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>3494</v>
       </c>
     </row>
@@ -688,10 +763,10 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>2831</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>4364</v>
       </c>
     </row>
@@ -712,10 +787,10 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1172</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>738.36</v>
       </c>
     </row>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,168 +410,75 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28369</v>
+        <v>1469.2</v>
       </c>
       <c r="D3" t="n">
-        <v>14.58</v>
+        <v>2.58</v>
       </c>
       <c r="E3" t="n">
-        <v>12.98</v>
+        <v>1.36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Very High</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Very High</t>
+          <t>High</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Very High</t>
+          <t>High</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2089</v>
+        <v>928</v>
       </c>
       <c r="J3" t="n">
-        <v>30458</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All you need is love, love is all you need </t>
-        </is>
+        <v>2398</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1469.2</v>
+        <v>1356</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>1.46</v>
       </c>
       <c r="E4" t="n">
-        <v>1.36</v>
+        <v>0.74</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>928</v>
+        <v>2956</v>
       </c>
       <c r="J4" t="n">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1985</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>833</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1356</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2956</v>
-      </c>
-      <c r="J6" t="n">
         <v>4312</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1172</v>
-      </c>
-      <c r="J7" t="n">
-        <v>738.36</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,49 +555,49 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30292.2</v>
+        <v>1469.2</v>
       </c>
       <c r="D3" t="n">
-        <v>21.45</v>
+        <v>2.58</v>
       </c>
       <c r="E3" t="n">
-        <v>19.72</v>
+        <v>1.36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Very High</t>
+          <t>High</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1481.6</v>
+        <v>928</v>
       </c>
       <c r="J3" t="n">
-        <v>31773.8</v>
+        <v>2398</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hello is it me you’re looking for</t>
+          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1469.2</v>
+        <v>1985</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -698,99 +605,33 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>928</v>
+        <v>833</v>
       </c>
       <c r="J4" t="n">
-        <v>2398</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
-        </is>
+        <v>3494</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>A11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1985</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>833</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2952</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2831</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D5" t="n">
         <v>0.38</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E5" t="n">
         <v>0.63</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I5" t="n">
         <v>1172</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J5" t="n">
         <v>738.36</v>
       </c>
     </row>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K4"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,75 +410,168 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>Mars</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1469.2</v>
+        <v>28369</v>
       </c>
       <c r="D3" t="n">
-        <v>2.58</v>
+        <v>14.58</v>
       </c>
       <c r="E3" t="n">
-        <v>1.36</v>
+        <v>12.98</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Very High</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Very High</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Very High</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>928</v>
+        <v>2089</v>
       </c>
       <c r="J3" t="n">
-        <v>2398</v>
+        <v>30458</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">All you need is love, love is all you need </t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>Sea of Tranquility</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1469.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>928</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apollo 13</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>833</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Falcon 9</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>1356</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6" t="n">
         <v>0.74</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>2956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J6" t="n">
         <v>4312</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1172</v>
+      </c>
+      <c r="J7" t="n">
+        <v>738.36</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K5"/>
+  <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,49 +648,49 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>Mars</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1469.2</v>
+        <v>30292.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.58</v>
+        <v>21.45</v>
       </c>
       <c r="E3" t="n">
-        <v>1.36</v>
+        <v>19.72</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Very High</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>928</v>
+        <v>1481.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2398</v>
+        <v>31773.8</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
+          <t>Hello is it me you’re looking for</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>Sea of Tranquility</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1985</v>
+        <v>1469.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="E4" t="n">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -605,33 +698,99 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>833</v>
+        <v>928</v>
       </c>
       <c r="J4" t="n">
-        <v>3494</v>
+        <v>2398</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
+          <t>Apollo 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apollo 13</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>833</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Falcon 9</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2952</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2831</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D8" t="n">
         <v>0.38</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E8" t="n">
         <v>0.63</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I8" t="n">
         <v>1172</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J8" t="n">
         <v>738.36</v>
       </c>
     </row>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -452,7 +452,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sea of Tranquility</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -479,8 +479,10 @@
           <t>High</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>928</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>928 -678</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>2398</v>
@@ -489,7 +491,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apollo 13</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -516,7 +518,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Falcon 9</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -680,7 +682,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sea of Tranquility</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -712,14 +714,14 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apollo 11</t>
+          <t>A11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apollo 13</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -746,7 +748,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Falcon 9</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -883,7 +885,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1761</v>
+        <v>833</v>
       </c>
       <c r="D7" t="n">
         <v>1761</v>
@@ -935,7 +937,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7978</v>
+        <v>7050</v>
       </c>
       <c r="D11" t="n">
         <v>7245.6</v>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,169 +410,100 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28369</v>
+        <v>1469.2</v>
       </c>
       <c r="D3" t="n">
-        <v>14.58</v>
+        <v>2.58</v>
       </c>
       <c r="E3" t="n">
-        <v>12.98</v>
+        <v>1.36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Very High</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Very High</t>
+          <t>High</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Very High</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2089</v>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>928 -678</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>30458</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All you need is love, love is all you need </t>
-        </is>
+        <v>2398</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1469.2</v>
+        <v>1356</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>1.46</v>
       </c>
       <c r="E4" t="n">
-        <v>1.36</v>
+        <v>0.74</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>928 -678</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2956</v>
       </c>
       <c r="J4" t="n">
-        <v>2398</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1985</v>
+          <t>Columbia</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>2.3</v>
+        <v>0.38</v>
       </c>
       <c r="E5" t="n">
-        <v>2.3</v>
+        <v>0.63</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>833</v>
+        <v>1172</v>
       </c>
       <c r="J5" t="n">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1356</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2956</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1172</v>
-      </c>
-      <c r="J7" t="n">
         <v>738.36</v>
       </c>
     </row>
@@ -587,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,49 +581,49 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30292.2</v>
+        <v>1469.2</v>
       </c>
       <c r="D3" t="n">
-        <v>21.45</v>
+        <v>2.58</v>
       </c>
       <c r="E3" t="n">
-        <v>19.72</v>
+        <v>1.36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Very High</t>
+          <t>High</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1481.6</v>
+        <v>928</v>
       </c>
       <c r="J3" t="n">
-        <v>31773.8</v>
+        <v>2398</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hello is it me you’re looking for</t>
+          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1469.2</v>
+        <v>1985</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -700,100 +631,61 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>928</v>
+        <v>833</v>
       </c>
       <c r="J4" t="n">
-        <v>2398</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
-        </is>
+        <v>3494</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>A11</t>
-        </is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1172</v>
+      </c>
+      <c r="J5" t="n">
+        <v>738.36</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1985</v>
+        <v>2952</v>
       </c>
       <c r="D6" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="E6" t="n">
-        <v>2.3</v>
+        <v>0.78</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>833</v>
+        <v>2831</v>
       </c>
       <c r="J6" t="n">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2952</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2831</v>
-      </c>
-      <c r="J7" t="n">
         <v>4364</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1172</v>
-      </c>
-      <c r="J8" t="n">
-        <v>738.36</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +777,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1761</v>
@@ -898,10 +790,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2089</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1481.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -937,10 +829,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7050</v>
+        <v>4128</v>
       </c>
       <c r="D11" t="n">
-        <v>7245.6</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="14">
@@ -1013,7 +905,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -1026,10 +918,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1065,10 +957,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K5"/>
+  <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,61 +449,24 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1356</v>
+          <t>Columbia</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>1.46</v>
+        <v>0.38</v>
       </c>
       <c r="E4" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2956</v>
+        <v>1172</v>
       </c>
       <c r="J4" t="n">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1172</v>
-      </c>
-      <c r="J5" t="n">
         <v>738.36</v>
       </c>
     </row>
@@ -518,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,78 +576,27 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1985</v>
+        <v>2952</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="E4" t="n">
-        <v>2.3</v>
+        <v>0.78</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>833</v>
+        <v>2831</v>
       </c>
       <c r="J4" t="n">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1172</v>
-      </c>
-      <c r="J5" t="n">
-        <v>738.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2952</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2831</v>
-      </c>
-      <c r="J6" t="n">
         <v>4364</v>
       </c>
     </row>
@@ -741,7 +653,7 @@
         <v>1172</v>
       </c>
       <c r="D4" t="n">
-        <v>1172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -764,7 +676,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2956</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>2831</v>
@@ -780,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1761</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8">
@@ -829,10 +741,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4128</v>
+        <v>1172</v>
       </c>
       <c r="D11" t="n">
-        <v>5764</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="14">
@@ -869,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -892,7 +804,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -908,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -957,10 +869,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K4"/>
+  <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,63 +410,189 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28369</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2089</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30458</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">All you need is love, love is all you need </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Roads Places and Environment Group</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>SoT</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1469.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.58</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>1.36</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>928 -678</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>2398</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSMRPG</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>833</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rail Group</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2956</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Roads Places and Environment Group</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E7" t="n">
         <v>0.63</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I7" t="n">
         <v>1172</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J7" t="n">
         <v>738.36</v>
       </c>
     </row>
@@ -481,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K4"/>
+  <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,60 +670,175 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30292.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1481.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31773.8</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Hello is it me you’re looking for</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Roads Places and Environment Group</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>SoT</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1469.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.58</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>1.36</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>928</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>2398</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSMRPG</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rail Group</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>833</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Roads Places and Environment Group</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C7" t="n">
         <v>2952</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D7" t="n">
         <v>1.54</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E7" t="n">
         <v>0.78</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I7" t="n">
         <v>2831</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J7" t="n">
         <v>4364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rail Group</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1172</v>
+      </c>
+      <c r="J8" t="n">
+        <v>738.36</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +894,7 @@
         <v>1172</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +917,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2956</v>
       </c>
       <c r="D6" t="n">
         <v>2831</v>
@@ -689,10 +930,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="D7" t="n">
-        <v>928</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="8">
@@ -702,10 +943,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2089</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1481.6</v>
       </c>
     </row>
     <row r="9">
@@ -741,10 +982,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1172</v>
+        <v>7050</v>
       </c>
       <c r="D11" t="n">
-        <v>3759</v>
+        <v>7245.6</v>
       </c>
     </row>
     <row r="14">
@@ -781,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +1045,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -817,10 +1058,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -830,10 +1071,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -869,10 +1110,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K7"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -363,45 +363,50 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NPV for all projects and NPV for programmes if available</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Adjusted Benefits Cost Ratio (BCR)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Initial Benefits Cost Ratio (BCR)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>VfM Category single entry</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>VfM Category lower range</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>VfM Category upper range</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Present Value Cost (PVC)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Present Value Benefit (PVB)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Benefits Narrative</t>
         </is>
@@ -413,186 +418,186 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>28369</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>14.58</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>12.98</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Very High</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Very High</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Very High</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>2089</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>30458</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t xml:space="preserve">All you need is love, love is all you need </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Roads Places and Environment Group</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>SoT</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1469.2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2.58</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.36</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>928 -678</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2398</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>HSMRPG</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1985</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.3</v>
       </c>
       <c r="E5" t="n">
         <v>2.3</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>833</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>3494</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rail Group</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1356</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.46</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.74</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>2956</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>4312</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Roads Places and Environment Group</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>0.38</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.63</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1172</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>738.36</v>
       </c>
     </row>
@@ -607,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K8"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,45 +628,50 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NPV for all projects and NPV for programmes if available</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Adjusted Benefits Cost Ratio (BCR)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Initial Benefits Cost Ratio (BCR)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>VfM Category single entry</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>VfM Category lower range</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>VfM Category upper range</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Present Value Cost (PVC)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Present Value Benefit (PVB)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Benefits Narrative</t>
         </is>
@@ -673,171 +683,171 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>30292.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>21.45</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>19.72</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Very High</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1481.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>31773.8</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Hello is it me you’re looking for</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Roads Places and Environment Group</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>SoT</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1469.2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2.58</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.36</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>928</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2398</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>HSMRPG</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A11</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rail Group</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>A13</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1985</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.3</v>
       </c>
       <c r="E6" t="n">
         <v>2.3</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>833</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3494</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Roads Places and Environment Group</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>2952</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1.54</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.78</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>2831</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>4364</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rail Group</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>0.38</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.63</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1172</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>738.36</v>
       </c>
     </row>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -612,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,105 +749,93 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HSMRPG</t>
-        </is>
+          <t>Rail</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>833</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3494</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1985</v>
+        <v>2952</v>
       </c>
       <c r="E6" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>0.78</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>833</v>
+        <v>2831</v>
       </c>
       <c r="K6" t="n">
-        <v>3494</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RPE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2952</v>
+          <t>Rail</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>1.54</v>
+        <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2831</v>
+        <v>1172</v>
       </c>
       <c r="K7" t="n">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1172</v>
-      </c>
-      <c r="K8" t="n">
         <v>738.36</v>
       </c>
     </row>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -612,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,93 +749,105 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>833</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3494</v>
+          <t>HSMRPG</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RPE</t>
+          <t>Rail</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2952</v>
+        <v>1985</v>
       </c>
       <c r="E6" t="n">
-        <v>1.54</v>
+        <v>2.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.78</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2831</v>
+        <v>833</v>
       </c>
       <c r="K6" t="n">
-        <v>4364</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2952</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2831</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Rail</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>0.38</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>0.63</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1172</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>738.36</v>
       </c>
     </row>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -418,6 +418,11 @@
           <t>Mars</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AMIS</t>
+        </is>
+      </c>
       <c r="D3" t="n">
         <v>28369</v>
       </c>
@@ -448,11 +453,6 @@
       <c r="K3" t="n">
         <v>30458</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">All you need is love, love is all you need </t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -489,14 +489,17 @@
           <t>High</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>928 -678</t>
-        </is>
+      <c r="J4" t="n">
+        <v>928</v>
       </c>
       <c r="K4" t="n">
         <v>2398</v>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Python is an interpreted, high-level, general-purpose programming language. Created by Guido van Rossum and first released in 1991, Python's design philosophy emphasizes code readability with its notable use of significant whitespace. Its language constructs and object-oriented approach aim to help programmers write clear, logical code for small and large-scale projects.[28] </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -506,7 +509,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HSMRPG</t>
+          <t>RSS</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -529,6 +532,11 @@
       <c r="K5" t="n">
         <v>3494</v>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PyCharm is an integrated development environment (IDE) used in computer programming, specifically for the Python language. It is developed by the Czech company JetBrains.[6] It provides code analysis, a graphical debugger, an integrated unit tester, integration with version control systems (VCSes), and supports web development with Django as well as Data Science with Anaconda.[7] </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -538,7 +546,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -571,6 +579,11 @@
       <c r="K6" t="n">
         <v>4312</v>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Datamaps allows for data to be collected from multiple users using pre-defined forms, built out of Excel spreadsheets. The form can be as complex or as simple as you like - Datamaps does the hard work of collecting the data into one place for onward processing or analysis, whilst ensuring that the data is valid according to expectations.  Datamaps acknowledges that in the office environment, we use Excel for everything, but using it to collect data requires help - which is where Datamaps excels. </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -580,7 +593,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RPE</t>
+          <t>RIG</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -599,6 +612,11 @@
       </c>
       <c r="K7" t="n">
         <v>738.36</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GitHub, Inc. is an American multinational corporation that provides hosting for software development and version control using Git. It offers the distributed version control and source code management (SCM) functionality of Git, plus its own features. It provides access control and several collaboration features such as bug tracking, feature requests, task management, and wikis for every project.[3] Headquartered in California, it has been a subsidiary of Microsoft since 2018.[4] </t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -612,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,6 +701,11 @@
           <t>Mars</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AMIS</t>
+        </is>
+      </c>
       <c r="D3" t="n">
         <v>30292.2</v>
       </c>
@@ -703,11 +726,6 @@
       <c r="K3" t="n">
         <v>31773.8</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Hello is it me you’re looking for</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -742,113 +760,116 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Please allow me to introduce myself I’m a man of wealth and taste.</t>
+          <t xml:space="preserve">Python is an interpreted, high-level, general-purpose programming language. Created by Guido van Rossum and first released in 1991, Python's design philosophy emphasizes code readability with its notable use of significant whitespace. Its language constructs and object-oriented approach aim to help programmers write clear, logical code for small and large-scale projects.[28] </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HSMRPG</t>
+          <t>RSS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>833</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3494</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PyCharm is an integrated development environment (IDE) used in computer programming, specifically for the Python language. It is developed by the Czech company JetBrains.[6] It provides code analysis, a graphical debugger, an integrated unit tester, integration with version control systems (VCSes), and supports web development with Django as well as Data Science with Anaconda.[7] </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1985</v>
+        <v>2952</v>
       </c>
       <c r="E6" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>0.78</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>833</v>
+        <v>2831</v>
       </c>
       <c r="K6" t="n">
-        <v>3494</v>
+        <v>4364</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Datamaps allows for data to be collected from multiple users using pre-defined forms, built out of Excel spreadsheets. The form can be as complex or as simple as you like - Datamaps does the hard work of collecting the data into one place for onward processing or analysis, whilst ensuring that the data is valid according to expectations.  Datamaps acknowledges that in the office environment, we use Excel for everything, but using it to collect data requires help - which is where Datamaps excels. </t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RPE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2952</v>
+          <t>RIG</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>1.54</v>
+        <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2831</v>
+        <v>1172</v>
       </c>
       <c r="K7" t="n">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1172</v>
-      </c>
-      <c r="K8" t="n">
         <v>738.36</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GitHub, Inc. is an American multinational corporation that provides hosting for software development and version control using Git. It offers the distributed version control and source code management (SCM) functionality of Git, plus its own features. It provides access control and several collaboration features such as bug tracking, feature requests, task management, and wikis for every project.[3] Headquartered in California, it has been a subsidiary of Microsoft since 2018.[4] </t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -940,7 +961,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>833</v>
+        <v>1761</v>
       </c>
       <c r="D7" t="n">
         <v>1761</v>
@@ -992,7 +1013,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7050</v>
+        <v>7978</v>
       </c>
       <c r="D11" t="n">
         <v>7245.6</v>

--- a/tests/resources/vfm.xlsx
+++ b/tests/resources/vfm.xlsx
@@ -55,6 +55,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
